--- a/client/client-app/public/account-template.xlsx
+++ b/client/client-app/public/account-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t xml:space="preserve">accountBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجاهد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هادی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدامی</t>
   </si>
 </sst>
 </file>
@@ -151,10 +163,10 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -177,20 +189,44 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>123456</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>987</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>9876</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>98765</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>987654</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
